--- a/LO6/LSL/data.xlsx
+++ b/LO6/LSL/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwinplanck/Desktop/Physics/Physics Lab III/LO6/LSL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B9E0EB-91E5-0942-A69E-B08A91613087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A270D4BF-39E4-D645-8FCA-FBA3CE5CD705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{D555E075-6A60-084A-BD92-BD9DF1EC82EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -435,20 +435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F070B-6BF9-4146-AE62-8CDB27827860}">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -456,7 +456,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -464,7 +464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -476,12 +476,12 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -496,7 +496,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -510,7 +510,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>1/(1/C8-1/C7)</f>
         <v>-16.309090909090909</v>
@@ -523,8 +523,12 @@
         <f>1/(1/E8-1/E7)</f>
         <v>-23.945578231292515</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f>AVERAGE(E9,C9)</f>
+        <v>-20.127334570191714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -535,7 +539,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -543,7 +547,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -552,7 +556,7 @@
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -595,16 +599,16 @@
         <v>13</v>
       </c>
       <c r="B19">
-        <f>1/C3 + 1/C9 - 6/(C3*C9)</f>
-        <v>8.2673238279645594E-2</v>
+        <f>1/C3 + 1/G9 - 6/(C3*G9)</f>
+        <v>8.6958645126453793E-2</v>
       </c>
       <c r="C19">
         <f>1/B19</f>
-        <v>12.095812633073102</v>
+        <v>11.499719188883599</v>
       </c>
       <c r="E19">
-        <f>6/E9*C17</f>
-        <v>-3.1329039883026302</v>
+        <f>6/G9*C17</f>
+        <v>-3.7272296180802438</v>
       </c>
       <c r="F19">
         <f>-6/C3*C17</f>
